--- a/data/trans_bre/P5_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -586,17 +586,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,07%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,44%</t>
+          <t>9,11%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 5,45</t>
+          <t>-2,21; 5,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 5,71</t>
+          <t>-3,02; 5,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 41,87</t>
+          <t>-12,55; 47,36</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,75; 37,33</t>
+          <t>-15,64; 37,82</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>-1,35</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,66%</t>
+          <t>-1,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,35%</t>
+          <t>-4,16%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 5,35</t>
+          <t>-6,23; 5,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 4,6</t>
+          <t>-7,98; 4,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,42; 16,66</t>
+          <t>-16,05; 16,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 15,44</t>
+          <t>-22,06; 15,96</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>11,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,99</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>39,87%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>22,27%</t>
+          <t>16,94%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 21,78</t>
+          <t>0,53; 21,63</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 19,69</t>
+          <t>-6,56; 17,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 97,6</t>
+          <t>1,54; 97,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 85,16</t>
+          <t>-16,13; 66,46</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>2,23%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 4,85</t>
+          <t>-1,6; 5,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 3,87</t>
+          <t>-3,0; 4,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 20,87</t>
+          <t>-6,18; 22,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 16,39</t>
+          <t>-10,91; 17,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,56</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>12,06%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,11%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>1.826556200916821</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.05868394472137</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1206026732360654</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.05982426722987794</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,21; 5,74</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,02; 5,51</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,55; 47,36</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-15,64; 37,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.205580521270905</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.295426564641525</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1254623178487627</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.1643543515605764</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>5.738196420884087</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.378608714068767</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.4736391628712304</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.3547976213316548</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,67%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-4,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,23; 5,42</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 4,59</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-16,05; 16,75</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-22,06; 15,96</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5969113084558997</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.523885316099433</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.01673418822032773</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.04597738478519996</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>11,22</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>5,75</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>39,91%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>16,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-6.234895897411304</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.271704843127475</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.1605175272761008</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2278408424674353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 21,63</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-6,56; 17,65</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>1,54; 97,57</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,13; 66,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>5.420167260502233</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.949131503719318</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.1675072512914747</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.1653167966503923</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,6</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,4%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,23%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>11.2163275462464</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.786150072431104</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.3991150237357595</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.2890880083105049</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,6; 5,09</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 4,09</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-6,18; 22,38</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 17,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.531235818205035</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.81425152053309</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>0.01544327603384497</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1041183791462341</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>21.62502297182892</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.04452960847404</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.9757320580239761</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.8174292623785364</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.599292046244885</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.6325637077073787</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.06401207373186345</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.02489525703649438</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.601303452886254</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.01943018287217</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.06180951916948783</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1086981267096619</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.092147577391554</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.390576909530627</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2237712691390047</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.1931904626793704</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
